--- a/medicine/Enfance/Alex_Flinn/Alex_Flinn.xlsx
+++ b/medicine/Enfance/Alex_Flinn/Alex_Flinn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alex Flinn (née le 23 octobre 1966 à Glen Cove près de New York) est une écrivaine de romans d'aventures et fantastiques.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alex Flinn a grandi dans différentes régions des États-Unis. À l'âge de cinq ans sa mère dit qu'elle a tout pour devenir écrivain. Certains de ses poèmes d'école sont soumis à des magazines.
-Elle a un diplôme d’art du spectacle, le PAVAC (Performing And Visual Arts Center), et un diplôme de droit, matière qu’elle a pratiquée dix ans avant de prendre la décision d’écrire à plein temps[1].
-Elle est mariée à Gene Flinn et a deux filles, Katie et Meredith. Elle vit désormais à Palmetto Bay, à Miami, près d'où elle a vécu étant petite[2].
+Elle a un diplôme d’art du spectacle, le PAVAC (Performing And Visual Arts Center), et un diplôme de droit, matière qu’elle a pratiquée dix ans avant de prendre la décision d’écrire à plein temps.
+Elle est mariée à Gene Flinn et a deux filles, Katie et Meredith. Elle vit désormais à Palmetto Bay, à Miami, près d'où elle a vécu étant petite.
 </t>
         </is>
       </c>
